--- a/Data_types.xlsx
+++ b/Data_types.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>game_id</t>
   </si>
@@ -407,7 +407,7 @@
   <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C8" sqref="C8:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,6 +444,9 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
